--- a/报警记录故障及格式.xlsx
+++ b/报警记录故障及格式.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B6AB41-7F4E-459F-B13E-C86F2635B78F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CA41CC-1743-444D-B061-FE49FEB8E6D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{984CBCBB-E2DF-4694-B0B8-40D1E3EA8273}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="报警记录故障及格式" sheetId="1" r:id="rId1"/>
+    <sheet name="文本说明" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="39">
   <si>
     <t>设备名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -40,11 +41,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">报警记录故障及报警格式
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">线体名称 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -53,17 +49,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>底盘1线</t>
-  </si>
-  <si>
-    <t>底盘1线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DB1800</t>
   </si>
   <si>
@@ -71,56 +56,126 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDR001</t>
+    <t>断路器故障</t>
+  </si>
+  <si>
+    <t>变频器故障</t>
+  </si>
+  <si>
+    <t>运行输出时接触器无反馈</t>
+  </si>
+  <si>
+    <t>隔离开关故障</t>
+  </si>
+  <si>
+    <t>变频器启动失败</t>
+  </si>
+  <si>
+    <t>前进超时故障</t>
+  </si>
+  <si>
+    <t>_A1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>_A2</t>
+  </si>
+  <si>
+    <t>_A3</t>
+  </si>
+  <si>
+    <t>_A4</t>
+  </si>
+  <si>
+    <t>_A5</t>
+  </si>
+  <si>
+    <t>_A6</t>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>底盘1线_</t>
+  </si>
+  <si>
+    <t>底盘1线_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDR001_</t>
+  </si>
+  <si>
+    <t>SDR001_</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>断路器故障</t>
-  </si>
-  <si>
-    <t>变频器故障</t>
-  </si>
-  <si>
-    <t>运行输出时接触器无反馈</t>
-  </si>
-  <si>
-    <t>隔离开关故障</t>
-  </si>
-  <si>
-    <t>变频器启动失败</t>
-  </si>
-  <si>
-    <t>前进超时故障</t>
-  </si>
-  <si>
-    <t>SDR001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
+    <t xml:space="preserve">  报警消息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDR001_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>底盘1线_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警消息：完整的报警所触发的报警消息，线体名称+设备名称+所触发的故障及报警信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名称：完整的变量名称，设备名称+序号（结构元素）如 ：ST001_Fault、PRR001_Service</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：完整的DB地址信息，如 ：DB18000.0、DB18000.1、DB18000.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障及报警信息：所触发的什么报警及故障，  如：断路器故障、变频器故障、隔离开关故障、</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB地址：触发消息在DB号什么位  如：0.1、0.2、0.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称：线体的设备名称、所触发的是什么设备 如：ST001、PRR001、TT001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB号：所对应的DB块，DB地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>线体名称：对应的线体名称，如底盘线、车门线、动力合成线、</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障变量名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警记录故障及报警格式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障变量名称：所对应的结构变量元素，如：A1:EstopFault、A2:ServiceFault、A3:OutTimeFault</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +214,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,29 +251,28 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -221,19 +291,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,45 +302,73 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="60% - 着色 2" xfId="1" builtinId="36"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="3" xr:uid="{C5DD5F22-06E7-4414-9797-722EDBAE5048}"/>
     <cellStyle name="着色 5" xfId="2" builtinId="45"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -597,263 +684,573 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
     <col min="8" max="8" width="21.21875" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="str">
+        <f>B3&amp;E3</f>
+        <v>DB18000.1</v>
+      </c>
+      <c r="H3" s="7" t="str">
+        <f>D3&amp;C3</f>
+        <v>SDR001__A1</v>
+      </c>
+      <c r="I3" s="7" t="str">
+        <f>A3&amp;D3&amp;F3</f>
+        <v>底盘1线_SDR001_断路器故障</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7" t="str">
+        <f t="shared" ref="G4:G8" si="0">B4&amp;E4</f>
+        <v>DB18000.2</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:H8" si="1">D4&amp;C4</f>
+        <v>SDR001__A2</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" ref="I4:I8" si="2">A4&amp;D4&amp;F4</f>
+        <v>底盘1线_SDR001_变频器故障</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>DB18000.3</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>SDR001__A3</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f>A5&amp;D5&amp;F5</f>
+        <v>底盘1线_SDR001_运行输出时接触器无反馈</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>DB18000.4</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>SDR001__A4</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>底盘1线_SDR001_隔离开关故障</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>DB18000.5</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>SDR001__A5</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>底盘1线_SDR001_变频器启动失败</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>DB18000.6</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>SDR001__A6</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>底盘1线_SDR001_前进超时故障</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF697D29-BF3E-4252-9943-633DB0657317}">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <f>B2&amp;E2</f>
-        <v>DB号DB地址</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f>C2&amp;D2</f>
-        <v>序号设备名称</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <f>A1&amp;D1&amp;F1</f>
-        <v xml:space="preserve">报警记录故障及报警格式
-</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <f>B3&amp;E3</f>
-        <v>DB18000.1</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <f>C3&amp;D3</f>
-        <v>A1SDR001</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <f>A3&amp;D3&amp;F3</f>
-        <v>底盘1线SDR001断路器故障</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4:G8" si="0">B4&amp;E4</f>
-        <v>DB18001.1</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f t="shared" ref="H4:H8" si="1">C4&amp;D4</f>
-        <v>A2SDR001</v>
-      </c>
-      <c r="I4" s="1" t="str">
-        <f t="shared" ref="I4:I8" si="2">A4&amp;D4&amp;F4</f>
-        <v>底盘1线SDR001变频器故障</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DB18001.2</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>A3SDR001</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <f>A5&amp;D5&amp;F5</f>
-        <v>底盘1线SDR001运行输出时接触器无反馈</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DB18001.3</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>A4SDR001</v>
-      </c>
-      <c r="I6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>底盘1线SDR001隔离开关故障</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DB18001.4</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>A5SDR001</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>底盘1线SDR001变频器启动失败</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DB18001.5</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>A6SDR001</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>底盘1线SDR001前进超时故障</v>
-      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A11:K12"/>
+    <mergeCell ref="A13:K14"/>
+    <mergeCell ref="A15:K16"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:K4"/>
+    <mergeCell ref="A5:K6"/>
+    <mergeCell ref="A7:K8"/>
+    <mergeCell ref="A9:K10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>